--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,20 +458,42 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Vincent Huang</t>
+          <t>Adam Jackson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Licensed Administrator</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RE/MAX Select Properties</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Sarka Trileta</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Sales Representative</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Vancouver, BC</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>RE/MAX City Realty</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,44 +456,264 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Adam Jackson</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Liliana Esparza</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RE/MAX Select Realty</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lina Rached</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RE/MAX Crest Realty (South Granville)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bryce Eviston</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Licensed Administrator</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Vancouver, BC</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>RE/MAX Select Properties</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Sarka Trileta</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vancouver, BC</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Charlotte Chang</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>RE/MAX Crest Realty (South Granville)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tom Shao</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Licensed Administrator</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>RE/MAX City Realty</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sine Schlaikiar</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>RE/MAX City Realty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Alex Yao</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>RE/MAX Select Properties</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Iva Valcheva</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>RE/MAX Crest Realty (South Granville)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Roya Fani</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Realtor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>RE/MAX City Realty</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jark Krysinski</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>RE/MAX Crest Realty (South Granville)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Leah Campbell</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>RE/MAX Crest Realty (South Granville)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Eric Liu</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Vancouver, BC</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>RE/MAX City Realty</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cecil Lee</t>
+          <t>David Malkin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,19 +473,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RE/MAX City Realty</t>
+          <t>RE/MAX Select Properties</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ryan Taylor</t>
+          <t>Shahina Najmidinova</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Licensed Administrator</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RE/MAX Real Estate Services</t>
+          <t>RE/MAX City Realty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rene Pantoja</t>
+          <t>Leanne Yan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -517,19 +517,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RE/MAX Crest Realty (South Granville)</t>
+          <t>RE/MAX Real Estate Services</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Valentino Cernica</t>
+          <t>Nicola Campbell</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Realtor</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,19 +539,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RE/MAX Select Properties</t>
+          <t>RE/MAX Crest Realty (South Granville)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Teresa Chan</t>
+          <t>Hazem Sultan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Real Estate Advisor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,14 +561,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RE/MAX City Realty</t>
+          <t>RE/MAX Crest Realty (South Granville)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Andrew Hasman</t>
+          <t>Meet Dusange</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -583,19 +583,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RE/MAX Real Estate Services</t>
+          <t>RE/MAX City Realty</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Michael Pearlman</t>
+          <t>Khush Grewal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Realtor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RE/MAX Select Properties</t>
+          <t>RE/MAX Elevate</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mehrnoush Hemmati-Asl</t>
+          <t>Gabe Bandel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sales associate.</t>
+          <t>Licensed Administrator</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,19 +627,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RE/MAX City Realty</t>
+          <t>RE/MAX Select Realty</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bharti Jain</t>
+          <t>James L Wang</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Real Estate Associate</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -656,7 +656,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aloke Chowdhury</t>
+          <t>Lina Rached</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -671,19 +671,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RE/MAX City Realty</t>
+          <t>RE/MAX Crest Realty (South Granville)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ian Malkin</t>
+          <t>Rosalee McRae</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Broker</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,29 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RE/MAX Select Realty</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Jan Chan</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Vancouver, BC</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>RE/MAX Crest Realty (South Granville)</t>
+          <t>RE/MAX Select Properties</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimpl\Documents\GitHub\Form-Entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D65AD41-1677-450E-A568-ED254D9E631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D307DE1D-61C7-496B-9518-2749957C5F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11070" yWindow="3570" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="3435" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -34,58 +34,58 @@
     <t>Office</t>
   </si>
   <si>
-    <t>Will Black</t>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Christopher Fujiki</t>
   </si>
   <si>
     <t>Sales Representative</t>
   </si>
   <si>
-    <t>Vancouver, BC</t>
-  </si>
-  <si>
-    <t>RE/MAX Crest Realty (South Granville)</t>
-  </si>
-  <si>
-    <t>AJ Cheema</t>
-  </si>
-  <si>
-    <t>Shawn Dhillon</t>
-  </si>
-  <si>
-    <t>Licensed Administrator</t>
-  </si>
-  <si>
-    <t>RE/MAX City Realty</t>
-  </si>
-  <si>
-    <t>Fayaz Nanji</t>
-  </si>
-  <si>
-    <t>RE/MAX Select Properties</t>
-  </si>
-  <si>
-    <t>Shiv Sandhu</t>
-  </si>
-  <si>
-    <t>Darryl Sjerven</t>
-  </si>
-  <si>
-    <t>RE/MAX Select Realty</t>
-  </si>
-  <si>
-    <t>Michael Tudorie</t>
-  </si>
-  <si>
-    <t>Natalia Morin</t>
-  </si>
-  <si>
-    <t>Crystal Jiang</t>
-  </si>
-  <si>
-    <t>Matt Anderson</t>
-  </si>
-  <si>
-    <t>RE/MAX Real Estate Services</t>
+    <t>Burnaby, BC</t>
+  </si>
+  <si>
+    <t>RE/MAX Crest Realty (Burnaby Kingsway)</t>
+  </si>
+  <si>
+    <t>03/12/24</t>
+  </si>
+  <si>
+    <t>Mario Figliola</t>
+  </si>
+  <si>
+    <t>RE/MAX Heights Realty</t>
+  </si>
+  <si>
+    <t>Omid Khosravi</t>
+  </si>
+  <si>
+    <t>Ken Johnston</t>
+  </si>
+  <si>
+    <t>Gary Gill</t>
+  </si>
+  <si>
+    <t>Ivan Lung</t>
+  </si>
+  <si>
+    <t>Jason Chen</t>
+  </si>
+  <si>
+    <t>Jackson Young</t>
+  </si>
+  <si>
+    <t>REALTOR</t>
+  </si>
+  <si>
+    <t>Noel Yii</t>
+  </si>
+  <si>
+    <t>Realtor</t>
+  </si>
+  <si>
+    <t>Tony Chan</t>
   </si>
 </sst>
 </file>
@@ -104,7 +104,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -449,18 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,145 +469,178 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
